--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -834,7 +834,7 @@
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Problem List Item</t>
+    <t>Problem List Item</t>
   </si>
   <si>
     <t>Coding.display</t>

--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="462">
   <si>
     <t>Path</t>
   </si>
@@ -356,6 +356,20 @@
 </t>
   </si>
   <si>
+    <t>A reference to a resource that is the actual problem</t>
+  </si>
+  <si>
+    <t>A reference to a Condition, Observation, FamilyMemberHistory, or AllergyIntolerance that is the actual problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>relatedProblemHeader</t>
   </si>
   <si>
@@ -363,6 +377,12 @@
 </t>
   </si>
   <si>
+    <t>Related problem header condition (target)</t>
+  </si>
+  <si>
+    <t>Related problem header condition (target).</t>
+  </si>
+  <si>
     <t>problemSignificance</t>
   </si>
   <si>
@@ -370,6 +390,12 @@
 </t>
   </si>
   <si>
+    <t>An extension to record the significance of the problem header condition</t>
+  </si>
+  <si>
+    <t>An extension to record the significance of the problem header condition.</t>
+  </si>
+  <si>
     <t>relatedClinicalContent</t>
   </si>
   <si>
@@ -377,6 +403,12 @@
 </t>
   </si>
   <si>
+    <t>A reference to any resource that provides related clinical content to the Condition</t>
+  </si>
+  <si>
+    <t>A reference to any resource that provides related clinical content to the Condition.</t>
+  </si>
+  <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
@@ -526,7 +558,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1015,41 +1047,10 @@
 </t>
   </si>
   <si>
-    <t>Condition.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Condition.code.coding.system</t>
@@ -1622,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1631,7 +1632,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.6796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1641,7 +1642,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2714,7 +2715,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>41</v>
@@ -2729,10 +2730,10 @@
         <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2792,10 +2793,10 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
@@ -2818,7 +2819,7 @@
         <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
@@ -2840,13 +2841,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2906,10 +2907,10 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
@@ -2932,7 +2933,7 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>41</v>
@@ -2942,7 +2943,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -2954,13 +2955,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3020,10 +3021,10 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>41</v>
@@ -3046,7 +3047,7 @@
         <v>96</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>41</v>
@@ -3068,13 +3069,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3134,10 +3135,10 @@
         <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>41</v>
@@ -3157,11 +3158,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3183,13 +3184,13 @@
         <v>97</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3239,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3271,7 +3272,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3294,17 +3295,17 @@
         <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3353,7 +3354,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3374,10 +3375,10 @@
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3385,7 +3386,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3408,13 +3409,13 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3465,7 +3466,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3486,7 +3487,7 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>41</v>
@@ -3497,11 +3498,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3523,13 +3524,13 @@
         <v>97</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3570,7 +3571,7 @@
         <v>100</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>41</v>
@@ -3579,7 +3580,7 @@
         <v>101</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3600,7 +3601,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3611,7 +3612,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3637,16 +3638,16 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3671,13 +3672,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3695,7 +3696,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3716,7 +3717,7 @@
         <v>95</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3727,7 +3728,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3750,19 +3751,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3790,10 +3791,10 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3811,7 +3812,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3829,10 +3830,10 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3843,7 +3844,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3869,14 +3870,14 @@
         <v>65</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3889,7 +3890,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -3925,7 +3926,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3943,10 +3944,10 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3957,7 +3958,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3980,16 +3981,16 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4003,7 +4004,7 @@
         <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>41</v>
@@ -4039,7 +4040,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4057,10 +4058,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -4071,7 +4072,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4094,13 +4095,13 @@
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4151,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4169,10 +4170,10 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4183,7 +4184,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4206,16 +4207,16 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4265,7 +4266,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4283,10 +4284,10 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -4297,7 +4298,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4323,13 +4324,13 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4355,13 +4356,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4379,7 +4380,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4388,22 +4389,22 @@
         <v>52</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4411,7 +4412,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4437,17 +4438,17 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -4469,13 +4470,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4493,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4502,30 +4503,30 @@
         <v>52</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4548,16 +4549,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4587,7 +4588,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4605,7 +4606,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4620,16 +4621,16 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4637,7 +4638,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4660,13 +4661,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4717,7 +4718,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4738,7 +4739,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4749,11 +4750,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4775,13 +4776,13 @@
         <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4822,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
@@ -4831,7 +4832,7 @@
         <v>101</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4852,7 +4853,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4863,7 +4864,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4886,19 +4887,19 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4947,7 +4948,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4965,10 +4966,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4979,7 +4980,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5002,13 +5003,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5059,7 +5060,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5080,7 +5081,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5091,11 +5092,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5117,13 +5118,13 @@
         <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5164,7 +5165,7 @@
         <v>100</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>41</v>
@@ -5173,7 +5174,7 @@
         <v>101</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5194,7 +5195,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5205,7 +5206,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5231,23 +5232,23 @@
         <v>65</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>41</v>
@@ -5289,7 +5290,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5307,10 +5308,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5321,7 +5322,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5344,16 +5345,16 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5403,7 +5404,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5421,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5435,7 +5436,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5461,21 +5462,21 @@
         <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>41</v>
@@ -5517,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5535,10 +5536,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5549,7 +5550,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5572,24 +5573,24 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>41</v>
@@ -5631,7 +5632,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5649,10 +5650,10 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5663,7 +5664,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5686,19 +5687,19 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5747,7 +5748,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5765,10 +5766,10 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5779,7 +5780,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5802,19 +5803,19 @@
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5863,7 +5864,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5881,10 +5882,10 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5895,7 +5896,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5918,16 +5919,16 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5953,13 +5954,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5977,7 +5978,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5992,28 +5993,28 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6032,17 +6033,17 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6067,13 +6068,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -6091,7 +6092,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6106,24 +6107,24 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6146,13 +6147,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6203,7 +6204,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6224,7 +6225,7 @@
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6235,11 +6236,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6261,13 +6262,13 @@
         <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6308,7 +6309,7 @@
         <v>100</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>41</v>
@@ -6317,7 +6318,7 @@
         <v>101</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6338,7 +6339,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6349,7 +6350,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6372,19 +6373,19 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6421,7 +6422,7 @@
         <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
@@ -6431,7 +6432,7 @@
         <v>101</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6449,10 +6450,10 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6463,10 +6464,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>41</v>
@@ -6488,19 +6489,19 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6525,13 +6526,13 @@
         <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>41</v>
@@ -6549,7 +6550,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6567,10 +6568,10 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6581,7 +6582,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6604,13 +6605,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6661,7 +6662,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6682,7 +6683,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6693,7 +6694,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6764,7 +6765,7 @@
         <v>100</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>41</v>
@@ -6773,7 +6774,7 @@
         <v>101</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6805,10 +6806,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>41</v>
@@ -6830,13 +6831,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6887,7 +6888,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6919,7 +6920,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6927,7 +6928,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
@@ -6939,25 +6940,29 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>41</v>
@@ -6999,7 +7004,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7017,10 +7022,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7031,18 +7036,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -7051,19 +7056,19 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7101,25 +7106,25 @@
         <v>41</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -7131,10 +7136,10 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7145,7 +7150,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7165,21 +7170,21 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7227,10 +7232,10 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>52</v>
@@ -7245,10 +7250,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7259,7 +7264,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7267,7 +7272,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>52</v>
@@ -7279,19 +7284,21 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7339,7 +7346,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7357,10 +7364,10 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7371,7 +7378,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7379,7 +7386,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>52</v>
@@ -7394,26 +7401,26 @@
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>41</v>
@@ -7455,7 +7462,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7473,10 +7480,10 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7487,7 +7494,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7498,7 +7505,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7510,18 +7517,20 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7587,10 +7596,10 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7601,7 +7610,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7609,10 +7618,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7624,18 +7633,18 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7659,13 +7668,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7683,13 +7692,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7698,28 +7707,28 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>254</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7738,17 +7747,17 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7797,10 +7806,10 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>52</v>
@@ -7815,13 +7824,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7829,11 +7838,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7852,20 +7861,18 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>265</v>
+        <v>355</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7913,7 +7920,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7931,13 +7938,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7945,7 +7952,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7968,20 +7975,18 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
       </c>
@@ -8029,7 +8034,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8047,13 +8052,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8061,7 +8066,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8072,7 +8077,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -8081,19 +8086,19 @@
         <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8119,13 +8124,13 @@
         <v>41</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -8143,47 +8148,47 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
@@ -8198,18 +8203,18 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8257,10 +8262,10 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>52</v>
@@ -8275,13 +8280,13 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8289,11 +8294,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8312,17 +8317,15 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
@@ -8371,7 +8374,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8389,13 +8392,13 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8414,7 +8417,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8423,20 +8426,18 @@
         <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8485,7 +8486,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8497,19 +8498,19 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>41</v>
@@ -8517,7 +8518,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8540,17 +8541,15 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8599,7 +8598,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>369</v>
+        <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8608,7 +8607,7 @@
         <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
@@ -8620,10 +8619,10 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8631,18 +8630,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8651,19 +8650,19 @@
         <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>378</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>379</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>142</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>125</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8713,13 +8712,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>377</v>
+        <v>144</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8731,13 +8730,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>383</v>
+        <v>139</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8745,38 +8744,40 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>387</v>
+        <v>123</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8825,13 +8826,13 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
@@ -8843,13 +8844,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>390</v>
+        <v>95</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8857,7 +8858,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8868,7 +8869,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -8880,13 +8881,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>393</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8913,13 +8914,13 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -8937,7 +8938,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8946,19 +8947,19 @@
         <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8969,7 +8970,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8980,7 +8981,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -8992,13 +8993,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>125</v>
+        <v>413</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>126</v>
+        <v>414</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9049,16 +9050,16 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>128</v>
+        <v>412</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
@@ -9070,7 +9071,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9081,18 +9082,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -9104,16 +9105,16 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>393</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>418</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>115</v>
+        <v>420</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9163,7 +9164,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>134</v>
+        <v>417</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9175,7 +9176,7 @@
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
@@ -9184,7 +9185,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>129</v>
+        <v>422</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9195,40 +9196,38 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
@@ -9277,13 +9276,13 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
@@ -9298,7 +9297,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9309,18 +9308,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9332,15 +9331,17 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>405</v>
+        <v>141</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9365,13 +9366,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9389,28 +9390,28 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>411</v>
+        <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9421,11 +9422,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9438,21 +9439,23 @@
         <v>41</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>123</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9501,7 +9504,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9510,7 +9513,7 @@
         <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
@@ -9522,7 +9525,7 @@
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9533,7 +9536,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9544,7 +9547,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9553,20 +9556,18 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>393</v>
+        <v>156</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9591,13 +9592,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9615,7 +9616,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9624,22 +9625,22 @@
         <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9647,7 +9648,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9658,7 +9659,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9667,16 +9668,16 @@
         <v>41</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>125</v>
+        <v>435</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>126</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>127</v>
+        <v>437</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9727,16 +9728,16 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>128</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
@@ -9748,10 +9749,10 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9759,11 +9760,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9782,17 +9783,15 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>97</v>
+        <v>439</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9841,7 +9840,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>134</v>
+        <v>438</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9859,10 +9858,10 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>129</v>
+        <v>443</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9873,40 +9872,38 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -9955,13 +9952,13 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>403</v>
+        <v>138</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
@@ -9976,7 +9973,7 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -9987,11 +9984,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10007,18 +10004,20 @@
         <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>427</v>
+        <v>141</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -10043,31 +10042,31 @@
         <v>41</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>426</v>
+        <v>144</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10076,22 +10075,22 @@
         <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>431</v>
+        <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>433</v>
+        <v>41</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>41</v>
@@ -10099,7 +10098,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10110,7 +10109,7 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>41</v>
@@ -10122,13 +10121,13 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10179,16 +10178,16 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>431</v>
+        <v>41</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
@@ -10197,13 +10196,13 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>433</v>
+        <v>41</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10211,7 +10210,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10222,7 +10221,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>41</v>
@@ -10231,16 +10230,16 @@
         <v>41</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10291,13 +10290,13 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
@@ -10309,10 +10308,10 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>442</v>
+        <v>95</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10323,7 +10322,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10331,7 +10330,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>52</v>
@@ -10346,13 +10345,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>126</v>
+        <v>458</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>127</v>
+        <v>459</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10403,10 +10402,10 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>128</v>
+        <v>460</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>52</v>
@@ -10421,470 +10420,20 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>129</v>
+        <v>461</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN81" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10894,7 +10443,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
